--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3095.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3095.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.494212518710187</v>
+        <v>1.247929930686951</v>
       </c>
       <c r="B1">
-        <v>2.675266636304062</v>
+        <v>2.386881351470947</v>
       </c>
       <c r="C1">
-        <v>3.076643860405264</v>
+        <v>3.991010189056396</v>
       </c>
       <c r="D1">
-        <v>3.651004895516536</v>
+        <v>2.724275588989258</v>
       </c>
       <c r="E1">
-        <v>2.346107678390001</v>
+        <v>1.317806005477905</v>
       </c>
     </row>
   </sheetData>
